--- a/lianliankan/doc/elements.xlsx
+++ b/lianliankan/doc/elements.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/creater3.0_Test/lianliankan/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B058BE8F-77AE-7E4B-90D7-6BA2CB44B959}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0806D19B-EDAB-1A4E-82FD-B195478ADEDD}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2080" yWindow="1120" windowWidth="28240" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-37080" yWindow="460" windowWidth="28240" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="elements" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
   <si>
     <t>关卡</t>
   </si>
@@ -57,6 +57,14 @@
   </si>
   <si>
     <t>kinds</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间/s</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>time</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1009,15 +1017,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E227"/>
+  <dimension ref="A1:F227"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1033,8 +1041,11 @@
       <c r="E1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1050,8 +1061,11 @@
       <c r="E2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1067,8 +1081,11 @@
       <c r="E3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1084,8 +1101,11 @@
       <c r="E4">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1101,8 +1121,11 @@
       <c r="E5">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>3</v>
       </c>
@@ -1118,8 +1141,11 @@
       <c r="E6">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="F6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>4</v>
       </c>
@@ -1135,8 +1161,11 @@
       <c r="E7">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="F7">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>5</v>
       </c>
@@ -1152,8 +1181,11 @@
       <c r="E8">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="F8">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>6</v>
       </c>
@@ -1169,8 +1201,11 @@
       <c r="E9">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="F9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>7</v>
       </c>
@@ -1186,8 +1221,11 @@
       <c r="E10">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="F10">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>8</v>
       </c>
@@ -1203,8 +1241,11 @@
       <c r="E11">
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="F11">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>9</v>
       </c>
@@ -1220,8 +1261,11 @@
       <c r="E12">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="F12">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13">
         <v>10</v>
       </c>
@@ -1237,8 +1281,11 @@
       <c r="E13">
         <v>5</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="F13">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14">
         <v>11</v>
       </c>
@@ -1254,8 +1301,11 @@
       <c r="E14">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="F14">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15">
         <v>12</v>
       </c>
@@ -1271,8 +1321,11 @@
       <c r="E15">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16">
         <v>13</v>
       </c>
@@ -1288,8 +1341,11 @@
       <c r="E16">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="F16">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17">
         <v>14</v>
       </c>
@@ -1305,8 +1361,11 @@
       <c r="E17">
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18">
         <v>15</v>
       </c>
@@ -1322,8 +1381,11 @@
       <c r="E18">
         <v>5</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19">
         <v>16</v>
       </c>
@@ -1339,8 +1401,11 @@
       <c r="E19">
         <v>5</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="F19">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20">
         <v>17</v>
       </c>
@@ -1356,8 +1421,11 @@
       <c r="E20">
         <v>5</v>
       </c>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="F20">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21">
         <v>18</v>
       </c>
@@ -1373,8 +1441,11 @@
       <c r="E21">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="F21">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22">
         <v>19</v>
       </c>
@@ -1390,8 +1461,11 @@
       <c r="E22">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="F22">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23">
         <v>20</v>
       </c>
@@ -1407,8 +1481,11 @@
       <c r="E23">
         <v>4</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="F23">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24">
         <v>21</v>
       </c>
@@ -1424,8 +1501,11 @@
       <c r="E24">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="1:5">
+      <c r="F24">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25">
         <v>22</v>
       </c>
@@ -1441,8 +1521,11 @@
       <c r="E25">
         <v>4</v>
       </c>
-    </row>
-    <row r="26" spans="1:5">
+      <c r="F25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26">
         <v>23</v>
       </c>
@@ -1458,8 +1541,11 @@
       <c r="E26">
         <v>4</v>
       </c>
-    </row>
-    <row r="27" spans="1:5">
+      <c r="F26">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27">
         <v>24</v>
       </c>
@@ -1475,8 +1561,11 @@
       <c r="E27">
         <v>4</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28">
         <v>25</v>
       </c>
@@ -1492,8 +1581,11 @@
       <c r="E28">
         <v>4</v>
       </c>
-    </row>
-    <row r="29" spans="1:5">
+      <c r="F28">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29">
         <v>26</v>
       </c>
@@ -1509,8 +1601,11 @@
       <c r="E29">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="1:5">
+      <c r="F29">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30">
         <v>27</v>
       </c>
@@ -1526,8 +1621,11 @@
       <c r="E30">
         <v>4</v>
       </c>
-    </row>
-    <row r="31" spans="1:5">
+      <c r="F30">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31">
         <v>28</v>
       </c>
@@ -1543,8 +1641,11 @@
       <c r="E31">
         <v>4</v>
       </c>
-    </row>
-    <row r="32" spans="1:5">
+      <c r="F31">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32">
         <v>29</v>
       </c>
@@ -1560,8 +1661,11 @@
       <c r="E32">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="1:5">
+      <c r="F32">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33">
         <v>30</v>
       </c>
@@ -1577,8 +1681,11 @@
       <c r="E33">
         <v>4</v>
       </c>
-    </row>
-    <row r="34" spans="1:5">
+      <c r="F33">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34">
         <v>31</v>
       </c>
@@ -1594,8 +1701,11 @@
       <c r="E34">
         <v>4</v>
       </c>
-    </row>
-    <row r="35" spans="1:5">
+      <c r="F34">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35">
         <v>32</v>
       </c>
@@ -1611,8 +1721,11 @@
       <c r="E35">
         <v>4</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="F35">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36">
         <v>33</v>
       </c>
@@ -1628,8 +1741,11 @@
       <c r="E36">
         <v>4</v>
       </c>
-    </row>
-    <row r="37" spans="1:5">
+      <c r="F36">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37">
         <v>34</v>
       </c>
@@ -1645,8 +1761,11 @@
       <c r="E37">
         <v>4</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38">
         <v>35</v>
       </c>
@@ -1662,8 +1781,11 @@
       <c r="E38">
         <v>4</v>
       </c>
-    </row>
-    <row r="39" spans="1:5">
+      <c r="F38">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39">
         <v>36</v>
       </c>
@@ -1679,8 +1801,11 @@
       <c r="E39">
         <v>4</v>
       </c>
-    </row>
-    <row r="40" spans="1:5">
+      <c r="F39">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40">
         <v>37</v>
       </c>
@@ -1696,8 +1821,11 @@
       <c r="E40">
         <v>4</v>
       </c>
-    </row>
-    <row r="41" spans="1:5">
+      <c r="F40">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41">
         <v>38</v>
       </c>
@@ -1713,8 +1841,11 @@
       <c r="E41">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="1:5">
+      <c r="F41">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42">
         <v>39</v>
       </c>
@@ -1730,8 +1861,11 @@
       <c r="E42">
         <v>4</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="F42">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43">
         <v>40</v>
       </c>
@@ -1747,8 +1881,11 @@
       <c r="E43">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="1:5">
+      <c r="F43">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44">
         <v>41</v>
       </c>
@@ -1764,8 +1901,11 @@
       <c r="E44">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="1:5">
+      <c r="F44">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45">
         <v>42</v>
       </c>
@@ -1781,8 +1921,11 @@
       <c r="E45">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46">
         <v>43</v>
       </c>
@@ -1798,8 +1941,11 @@
       <c r="E46">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="1:5">
+      <c r="F46">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47">
         <v>44</v>
       </c>
@@ -1815,8 +1961,11 @@
       <c r="E47">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="1:5">
+      <c r="F47">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48">
         <v>45</v>
       </c>
@@ -1832,8 +1981,11 @@
       <c r="E48">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="1:5">
+      <c r="F48">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49">
         <v>46</v>
       </c>
@@ -1849,8 +2001,11 @@
       <c r="E49">
         <v>4</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50">
         <v>47</v>
       </c>
@@ -1866,8 +2021,11 @@
       <c r="E50">
         <v>4</v>
       </c>
-    </row>
-    <row r="51" spans="1:5">
+      <c r="F50">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51">
         <v>48</v>
       </c>
@@ -1883,8 +2041,11 @@
       <c r="E51">
         <v>4</v>
       </c>
-    </row>
-    <row r="52" spans="1:5">
+      <c r="F51">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52">
         <v>49</v>
       </c>
@@ -1900,8 +2061,11 @@
       <c r="E52">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53">
         <v>50</v>
       </c>
@@ -1917,8 +2081,11 @@
       <c r="E53">
         <v>4</v>
       </c>
-    </row>
-    <row r="54" spans="1:5">
+      <c r="F53">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54">
         <v>51</v>
       </c>
@@ -1934,8 +2101,11 @@
       <c r="E54">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="1:5">
+      <c r="F54">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55">
         <v>52</v>
       </c>
@@ -1951,8 +2121,11 @@
       <c r="E55">
         <v>4</v>
       </c>
-    </row>
-    <row r="56" spans="1:5">
+      <c r="F55">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56">
         <v>53</v>
       </c>
@@ -1968,8 +2141,11 @@
       <c r="E56">
         <v>4</v>
       </c>
-    </row>
-    <row r="57" spans="1:5">
+      <c r="F56">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57">
         <v>54</v>
       </c>
@@ -1985,8 +2161,11 @@
       <c r="E57">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="F57">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58">
         <v>55</v>
       </c>
@@ -2002,8 +2181,11 @@
       <c r="E58">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="1:5">
+      <c r="F58">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59">
         <v>56</v>
       </c>
@@ -2019,8 +2201,11 @@
       <c r="E59">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="1:5">
+      <c r="F59">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60">
         <v>57</v>
       </c>
@@ -2036,8 +2221,11 @@
       <c r="E60">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="1:5">
+      <c r="F60">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61">
         <v>58</v>
       </c>
@@ -2053,8 +2241,11 @@
       <c r="E61">
         <v>4</v>
       </c>
-    </row>
-    <row r="62" spans="1:5">
+      <c r="F61">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62">
         <v>59</v>
       </c>
@@ -2070,8 +2261,11 @@
       <c r="E62">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63">
         <v>60</v>
       </c>
@@ -2087,8 +2281,11 @@
       <c r="E63">
         <v>4</v>
       </c>
-    </row>
-    <row r="64" spans="1:5">
+      <c r="F63">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64">
         <v>61</v>
       </c>
@@ -2104,8 +2301,11 @@
       <c r="E64">
         <v>4</v>
       </c>
-    </row>
-    <row r="65" spans="1:5">
+      <c r="F64">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65">
         <v>62</v>
       </c>
@@ -2121,8 +2321,11 @@
       <c r="E65">
         <v>4</v>
       </c>
-    </row>
-    <row r="66" spans="1:5">
+      <c r="F65">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66">
         <v>63</v>
       </c>
@@ -2138,8 +2341,11 @@
       <c r="E66">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="1:5">
+      <c r="F66">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67">
         <v>64</v>
       </c>
@@ -2155,8 +2361,11 @@
       <c r="E67">
         <v>4</v>
       </c>
-    </row>
-    <row r="68" spans="1:5">
+      <c r="F67">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68">
         <v>65</v>
       </c>
@@ -2172,8 +2381,11 @@
       <c r="E68">
         <v>4</v>
       </c>
-    </row>
-    <row r="69" spans="1:5">
+      <c r="F68">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69">
         <v>66</v>
       </c>
@@ -2189,8 +2401,11 @@
       <c r="E69">
         <v>4</v>
       </c>
-    </row>
-    <row r="70" spans="1:5">
+      <c r="F69">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70">
         <v>67</v>
       </c>
@@ -2206,8 +2421,11 @@
       <c r="E70">
         <v>4</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71">
         <v>68</v>
       </c>
@@ -2223,8 +2441,11 @@
       <c r="E71">
         <v>4</v>
       </c>
-    </row>
-    <row r="72" spans="1:5">
+      <c r="F71">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72">
         <v>69</v>
       </c>
@@ -2240,8 +2461,11 @@
       <c r="E72">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="1:5">
+      <c r="F72">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73">
         <v>70</v>
       </c>
@@ -2257,8 +2481,11 @@
       <c r="E73">
         <v>4</v>
       </c>
-    </row>
-    <row r="74" spans="1:5">
+      <c r="F73">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74">
         <v>71</v>
       </c>
@@ -2274,8 +2501,11 @@
       <c r="E74">
         <v>4</v>
       </c>
-    </row>
-    <row r="75" spans="1:5">
+      <c r="F74">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75">
         <v>72</v>
       </c>
@@ -2291,8 +2521,11 @@
       <c r="E75">
         <v>4</v>
       </c>
-    </row>
-    <row r="76" spans="1:5">
+      <c r="F75">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76">
         <v>73</v>
       </c>
@@ -2308,8 +2541,11 @@
       <c r="E76">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="1:5">
+      <c r="F76">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77">
         <v>74</v>
       </c>
@@ -2325,8 +2561,11 @@
       <c r="E77">
         <v>4</v>
       </c>
-    </row>
-    <row r="78" spans="1:5">
+      <c r="F77">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78">
         <v>75</v>
       </c>
@@ -2342,8 +2581,11 @@
       <c r="E78">
         <v>4</v>
       </c>
-    </row>
-    <row r="79" spans="1:5">
+      <c r="F78">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79">
         <v>76</v>
       </c>
@@ -2359,8 +2601,11 @@
       <c r="E79">
         <v>4</v>
       </c>
-    </row>
-    <row r="80" spans="1:5">
+      <c r="F79">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80">
         <v>77</v>
       </c>
@@ -2376,8 +2621,11 @@
       <c r="E80">
         <v>4</v>
       </c>
-    </row>
-    <row r="81" spans="1:5">
+      <c r="F80">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81">
         <v>78</v>
       </c>
@@ -2393,8 +2641,11 @@
       <c r="E81">
         <v>4</v>
       </c>
-    </row>
-    <row r="82" spans="1:5">
+      <c r="F81">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82">
         <v>79</v>
       </c>
@@ -2410,8 +2661,11 @@
       <c r="E82">
         <v>4</v>
       </c>
-    </row>
-    <row r="83" spans="1:5">
+      <c r="F82">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83">
         <v>80</v>
       </c>
@@ -2427,8 +2681,11 @@
       <c r="E83">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="1:5">
+      <c r="F83">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84">
         <v>81</v>
       </c>
@@ -2444,8 +2701,11 @@
       <c r="E84">
         <v>4</v>
       </c>
-    </row>
-    <row r="85" spans="1:5">
+      <c r="F84">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85">
         <v>82</v>
       </c>
@@ -2461,8 +2721,11 @@
       <c r="E85">
         <v>4</v>
       </c>
-    </row>
-    <row r="86" spans="1:5">
+      <c r="F85">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86">
         <v>83</v>
       </c>
@@ -2478,8 +2741,11 @@
       <c r="E86">
         <v>4</v>
       </c>
-    </row>
-    <row r="87" spans="1:5">
+      <c r="F86">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87">
         <v>84</v>
       </c>
@@ -2495,8 +2761,11 @@
       <c r="E87">
         <v>4</v>
       </c>
-    </row>
-    <row r="88" spans="1:5">
+      <c r="F87">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88">
         <v>85</v>
       </c>
@@ -2512,8 +2781,11 @@
       <c r="E88">
         <v>4</v>
       </c>
-    </row>
-    <row r="89" spans="1:5">
+      <c r="F88">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89">
         <v>86</v>
       </c>
@@ -2529,8 +2801,11 @@
       <c r="E89">
         <v>4</v>
       </c>
-    </row>
-    <row r="90" spans="1:5">
+      <c r="F89">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90">
         <v>87</v>
       </c>
@@ -2546,8 +2821,11 @@
       <c r="E90">
         <v>4</v>
       </c>
-    </row>
-    <row r="91" spans="1:5">
+      <c r="F90">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91">
         <v>88</v>
       </c>
@@ -2563,8 +2841,11 @@
       <c r="E91">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="1:5">
+      <c r="F91">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92">
         <v>89</v>
       </c>
@@ -2580,8 +2861,11 @@
       <c r="E92">
         <v>4</v>
       </c>
-    </row>
-    <row r="93" spans="1:5">
+      <c r="F92">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93">
         <v>90</v>
       </c>
@@ -2597,8 +2881,11 @@
       <c r="E93">
         <v>4</v>
       </c>
-    </row>
-    <row r="94" spans="1:5">
+      <c r="F93">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94">
         <v>91</v>
       </c>
@@ -2614,8 +2901,11 @@
       <c r="E94">
         <v>4</v>
       </c>
-    </row>
-    <row r="95" spans="1:5">
+      <c r="F94">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95">
         <v>92</v>
       </c>
@@ -2631,8 +2921,11 @@
       <c r="E95">
         <v>4</v>
       </c>
-    </row>
-    <row r="96" spans="1:5">
+      <c r="F95">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96">
         <v>93</v>
       </c>
@@ -2648,8 +2941,11 @@
       <c r="E96">
         <v>4</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97">
         <v>94</v>
       </c>
@@ -2665,8 +2961,11 @@
       <c r="E97">
         <v>4</v>
       </c>
-    </row>
-    <row r="98" spans="1:5">
+      <c r="F97">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98">
         <v>95</v>
       </c>
@@ -2682,8 +2981,11 @@
       <c r="E98">
         <v>4</v>
       </c>
-    </row>
-    <row r="99" spans="1:5">
+      <c r="F98">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99">
         <v>96</v>
       </c>
@@ -2699,8 +3001,11 @@
       <c r="E99">
         <v>4</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100">
         <v>97</v>
       </c>
@@ -2716,8 +3021,11 @@
       <c r="E100">
         <v>4</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101">
         <v>98</v>
       </c>
@@ -2733,8 +3041,11 @@
       <c r="E101">
         <v>4</v>
       </c>
-    </row>
-    <row r="102" spans="1:5">
+      <c r="F101">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102">
         <v>99</v>
       </c>
@@ -2750,8 +3061,11 @@
       <c r="E102">
         <v>4</v>
       </c>
-    </row>
-    <row r="103" spans="1:5">
+      <c r="F102">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103">
         <v>100</v>
       </c>
@@ -2767,8 +3081,11 @@
       <c r="E103">
         <v>4</v>
       </c>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="F103">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104">
         <v>101</v>
       </c>
@@ -2784,8 +3101,11 @@
       <c r="E104">
         <v>4</v>
       </c>
-    </row>
-    <row r="105" spans="1:5">
+      <c r="F104">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
       <c r="A105">
         <v>102</v>
       </c>
@@ -2801,8 +3121,11 @@
       <c r="E105">
         <v>4</v>
       </c>
-    </row>
-    <row r="106" spans="1:5">
+      <c r="F105">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
       <c r="A106">
         <v>103</v>
       </c>
@@ -2818,8 +3141,11 @@
       <c r="E106">
         <v>4</v>
       </c>
-    </row>
-    <row r="107" spans="1:5">
+      <c r="F106">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
       <c r="A107">
         <v>104</v>
       </c>
@@ -2835,8 +3161,11 @@
       <c r="E107">
         <v>4</v>
       </c>
-    </row>
-    <row r="108" spans="1:5">
+      <c r="F107">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
       <c r="A108">
         <v>105</v>
       </c>
@@ -2852,8 +3181,11 @@
       <c r="E108">
         <v>4</v>
       </c>
-    </row>
-    <row r="109" spans="1:5">
+      <c r="F108">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
       <c r="A109">
         <v>106</v>
       </c>
@@ -2869,8 +3201,11 @@
       <c r="E109">
         <v>4</v>
       </c>
-    </row>
-    <row r="110" spans="1:5">
+      <c r="F109">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
       <c r="A110">
         <v>107</v>
       </c>
@@ -2886,8 +3221,11 @@
       <c r="E110">
         <v>4</v>
       </c>
-    </row>
-    <row r="111" spans="1:5">
+      <c r="F110">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
       <c r="A111">
         <v>108</v>
       </c>
@@ -2903,8 +3241,11 @@
       <c r="E111">
         <v>4</v>
       </c>
-    </row>
-    <row r="112" spans="1:5">
+      <c r="F111">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
       <c r="A112">
         <v>109</v>
       </c>
@@ -2920,8 +3261,11 @@
       <c r="E112">
         <v>4</v>
       </c>
-    </row>
-    <row r="113" spans="1:5">
+      <c r="F112">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
       <c r="A113">
         <v>110</v>
       </c>
@@ -2937,8 +3281,11 @@
       <c r="E113">
         <v>4</v>
       </c>
-    </row>
-    <row r="114" spans="1:5">
+      <c r="F113">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
       <c r="A114">
         <v>111</v>
       </c>
@@ -2954,8 +3301,11 @@
       <c r="E114">
         <v>4</v>
       </c>
-    </row>
-    <row r="115" spans="1:5">
+      <c r="F114">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
       <c r="A115">
         <v>112</v>
       </c>
@@ -2971,8 +3321,11 @@
       <c r="E115">
         <v>4</v>
       </c>
-    </row>
-    <row r="116" spans="1:5">
+      <c r="F115">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
       <c r="A116">
         <v>113</v>
       </c>
@@ -2988,8 +3341,11 @@
       <c r="E116">
         <v>4</v>
       </c>
-    </row>
-    <row r="117" spans="1:5">
+      <c r="F116">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
       <c r="A117">
         <v>114</v>
       </c>
@@ -3005,8 +3361,11 @@
       <c r="E117">
         <v>4</v>
       </c>
-    </row>
-    <row r="118" spans="1:5">
+      <c r="F117">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
       <c r="A118">
         <v>115</v>
       </c>
@@ -3022,8 +3381,11 @@
       <c r="E118">
         <v>4</v>
       </c>
-    </row>
-    <row r="119" spans="1:5">
+      <c r="F118">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
       <c r="A119">
         <v>116</v>
       </c>
@@ -3039,8 +3401,11 @@
       <c r="E119">
         <v>4</v>
       </c>
-    </row>
-    <row r="120" spans="1:5">
+      <c r="F119">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
       <c r="A120">
         <v>117</v>
       </c>
@@ -3056,8 +3421,11 @@
       <c r="E120">
         <v>4</v>
       </c>
-    </row>
-    <row r="121" spans="1:5">
+      <c r="F120">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
       <c r="A121">
         <v>118</v>
       </c>
@@ -3073,8 +3441,11 @@
       <c r="E121">
         <v>4</v>
       </c>
-    </row>
-    <row r="122" spans="1:5">
+      <c r="F121">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
       <c r="A122">
         <v>119</v>
       </c>
@@ -3090,8 +3461,11 @@
       <c r="E122">
         <v>4</v>
       </c>
-    </row>
-    <row r="123" spans="1:5">
+      <c r="F122">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
       <c r="A123">
         <v>120</v>
       </c>
@@ -3107,8 +3481,11 @@
       <c r="E123">
         <v>4</v>
       </c>
-    </row>
-    <row r="124" spans="1:5">
+      <c r="F123">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
       <c r="A124">
         <v>121</v>
       </c>
@@ -3124,8 +3501,11 @@
       <c r="E124">
         <v>4</v>
       </c>
-    </row>
-    <row r="125" spans="1:5">
+      <c r="F124">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
       <c r="A125">
         <v>122</v>
       </c>
@@ -3141,8 +3521,11 @@
       <c r="E125">
         <v>4</v>
       </c>
-    </row>
-    <row r="126" spans="1:5">
+      <c r="F125">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
       <c r="A126">
         <v>123</v>
       </c>
@@ -3158,8 +3541,11 @@
       <c r="E126">
         <v>4</v>
       </c>
-    </row>
-    <row r="127" spans="1:5">
+      <c r="F126">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
       <c r="A127">
         <v>124</v>
       </c>
@@ -3175,8 +3561,11 @@
       <c r="E127">
         <v>4</v>
       </c>
-    </row>
-    <row r="128" spans="1:5">
+      <c r="F127">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
       <c r="A128">
         <v>125</v>
       </c>
@@ -3192,8 +3581,11 @@
       <c r="E128">
         <v>4</v>
       </c>
-    </row>
-    <row r="129" spans="1:5">
+      <c r="F128">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
       <c r="A129">
         <v>126</v>
       </c>
@@ -3209,8 +3601,11 @@
       <c r="E129">
         <v>4</v>
       </c>
-    </row>
-    <row r="130" spans="1:5">
+      <c r="F129">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
       <c r="A130">
         <v>127</v>
       </c>
@@ -3226,8 +3621,11 @@
       <c r="E130">
         <v>4</v>
       </c>
-    </row>
-    <row r="131" spans="1:5">
+      <c r="F130">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
       <c r="A131">
         <v>128</v>
       </c>
@@ -3243,8 +3641,11 @@
       <c r="E131">
         <v>4</v>
       </c>
-    </row>
-    <row r="132" spans="1:5">
+      <c r="F131">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
       <c r="A132">
         <v>129</v>
       </c>
@@ -3260,8 +3661,11 @@
       <c r="E132">
         <v>4</v>
       </c>
-    </row>
-    <row r="133" spans="1:5">
+      <c r="F132">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
       <c r="A133">
         <v>130</v>
       </c>
@@ -3277,8 +3681,11 @@
       <c r="E133">
         <v>4</v>
       </c>
-    </row>
-    <row r="134" spans="1:5">
+      <c r="F133">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
       <c r="A134">
         <v>131</v>
       </c>
@@ -3294,8 +3701,11 @@
       <c r="E134">
         <v>4</v>
       </c>
-    </row>
-    <row r="135" spans="1:5">
+      <c r="F134">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6">
       <c r="A135">
         <v>132</v>
       </c>
@@ -3311,8 +3721,11 @@
       <c r="E135">
         <v>4</v>
       </c>
-    </row>
-    <row r="136" spans="1:5">
+      <c r="F135">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
       <c r="A136">
         <v>133</v>
       </c>
@@ -3328,8 +3741,11 @@
       <c r="E136">
         <v>4</v>
       </c>
-    </row>
-    <row r="137" spans="1:5">
+      <c r="F136">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6">
       <c r="A137">
         <v>134</v>
       </c>
@@ -3345,8 +3761,11 @@
       <c r="E137">
         <v>4</v>
       </c>
-    </row>
-    <row r="138" spans="1:5">
+      <c r="F137">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6">
       <c r="A138">
         <v>135</v>
       </c>
@@ -3362,8 +3781,11 @@
       <c r="E138">
         <v>4</v>
       </c>
-    </row>
-    <row r="139" spans="1:5">
+      <c r="F138">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6">
       <c r="A139">
         <v>136</v>
       </c>
@@ -3379,8 +3801,11 @@
       <c r="E139">
         <v>4</v>
       </c>
-    </row>
-    <row r="140" spans="1:5">
+      <c r="F139">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6">
       <c r="A140">
         <v>137</v>
       </c>
@@ -3396,8 +3821,11 @@
       <c r="E140">
         <v>4</v>
       </c>
-    </row>
-    <row r="141" spans="1:5">
+      <c r="F140">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6">
       <c r="A141">
         <v>138</v>
       </c>
@@ -3413,8 +3841,11 @@
       <c r="E141">
         <v>4</v>
       </c>
-    </row>
-    <row r="142" spans="1:5">
+      <c r="F141">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6">
       <c r="A142">
         <v>139</v>
       </c>
@@ -3430,8 +3861,11 @@
       <c r="E142">
         <v>4</v>
       </c>
-    </row>
-    <row r="143" spans="1:5">
+      <c r="F142">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6">
       <c r="A143">
         <v>140</v>
       </c>
@@ -3447,8 +3881,11 @@
       <c r="E143">
         <v>4</v>
       </c>
-    </row>
-    <row r="144" spans="1:5">
+      <c r="F143">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6">
       <c r="A144">
         <v>141</v>
       </c>
@@ -3464,8 +3901,11 @@
       <c r="E144">
         <v>4</v>
       </c>
-    </row>
-    <row r="145" spans="1:5">
+      <c r="F144">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6">
       <c r="A145">
         <v>142</v>
       </c>
@@ -3481,8 +3921,11 @@
       <c r="E145">
         <v>4</v>
       </c>
-    </row>
-    <row r="146" spans="1:5">
+      <c r="F145">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6">
       <c r="A146">
         <v>143</v>
       </c>
@@ -3498,8 +3941,11 @@
       <c r="E146">
         <v>4</v>
       </c>
-    </row>
-    <row r="147" spans="1:5">
+      <c r="F146">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6">
       <c r="A147">
         <v>144</v>
       </c>
@@ -3515,8 +3961,11 @@
       <c r="E147">
         <v>4</v>
       </c>
-    </row>
-    <row r="148" spans="1:5">
+      <c r="F147">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6">
       <c r="A148">
         <v>145</v>
       </c>
@@ -3532,8 +3981,11 @@
       <c r="E148">
         <v>4</v>
       </c>
-    </row>
-    <row r="149" spans="1:5">
+      <c r="F148">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6">
       <c r="A149">
         <v>146</v>
       </c>
@@ -3549,8 +4001,11 @@
       <c r="E149">
         <v>4</v>
       </c>
-    </row>
-    <row r="150" spans="1:5">
+      <c r="F149">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6">
       <c r="A150">
         <v>147</v>
       </c>
@@ -3566,8 +4021,11 @@
       <c r="E150">
         <v>4</v>
       </c>
-    </row>
-    <row r="151" spans="1:5">
+      <c r="F150">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6">
       <c r="A151">
         <v>148</v>
       </c>
@@ -3583,8 +4041,11 @@
       <c r="E151">
         <v>4</v>
       </c>
-    </row>
-    <row r="152" spans="1:5">
+      <c r="F151">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6">
       <c r="A152">
         <v>149</v>
       </c>
@@ -3600,8 +4061,11 @@
       <c r="E152">
         <v>4</v>
       </c>
-    </row>
-    <row r="153" spans="1:5">
+      <c r="F152">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6">
       <c r="A153">
         <v>150</v>
       </c>
@@ -3617,8 +4081,11 @@
       <c r="E153">
         <v>4</v>
       </c>
-    </row>
-    <row r="154" spans="1:5">
+      <c r="F153">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6">
       <c r="A154">
         <v>151</v>
       </c>
@@ -3634,8 +4101,11 @@
       <c r="E154">
         <v>4</v>
       </c>
-    </row>
-    <row r="155" spans="1:5">
+      <c r="F154">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6">
       <c r="A155">
         <v>152</v>
       </c>
@@ -3651,8 +4121,11 @@
       <c r="E155">
         <v>4</v>
       </c>
-    </row>
-    <row r="156" spans="1:5">
+      <c r="F155">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6">
       <c r="A156">
         <v>153</v>
       </c>
@@ -3668,8 +4141,11 @@
       <c r="E156">
         <v>4</v>
       </c>
-    </row>
-    <row r="157" spans="1:5">
+      <c r="F156">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6">
       <c r="A157">
         <v>154</v>
       </c>
@@ -3685,8 +4161,11 @@
       <c r="E157">
         <v>4</v>
       </c>
-    </row>
-    <row r="158" spans="1:5">
+      <c r="F157">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6">
       <c r="A158">
         <v>155</v>
       </c>
@@ -3702,8 +4181,11 @@
       <c r="E158">
         <v>4</v>
       </c>
-    </row>
-    <row r="159" spans="1:5">
+      <c r="F158">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6">
       <c r="A159">
         <v>156</v>
       </c>
@@ -3719,8 +4201,11 @@
       <c r="E159">
         <v>4</v>
       </c>
-    </row>
-    <row r="160" spans="1:5">
+      <c r="F159">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6">
       <c r="A160">
         <v>157</v>
       </c>
@@ -3736,8 +4221,11 @@
       <c r="E160">
         <v>4</v>
       </c>
-    </row>
-    <row r="161" spans="1:5">
+      <c r="F160">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6">
       <c r="A161">
         <v>158</v>
       </c>
@@ -3753,8 +4241,11 @@
       <c r="E161">
         <v>4</v>
       </c>
-    </row>
-    <row r="162" spans="1:5">
+      <c r="F161">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6">
       <c r="A162">
         <v>159</v>
       </c>
@@ -3770,8 +4261,11 @@
       <c r="E162">
         <v>4</v>
       </c>
-    </row>
-    <row r="163" spans="1:5">
+      <c r="F162">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6">
       <c r="A163">
         <v>160</v>
       </c>
@@ -3787,8 +4281,11 @@
       <c r="E163">
         <v>4</v>
       </c>
-    </row>
-    <row r="164" spans="1:5">
+      <c r="F163">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6">
       <c r="A164">
         <v>161</v>
       </c>
@@ -3804,8 +4301,11 @@
       <c r="E164">
         <v>4</v>
       </c>
-    </row>
-    <row r="165" spans="1:5">
+      <c r="F164">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6">
       <c r="A165">
         <v>162</v>
       </c>
@@ -3821,8 +4321,11 @@
       <c r="E165">
         <v>4</v>
       </c>
-    </row>
-    <row r="166" spans="1:5">
+      <c r="F165">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6">
       <c r="A166">
         <v>163</v>
       </c>
@@ -3838,8 +4341,11 @@
       <c r="E166">
         <v>4</v>
       </c>
-    </row>
-    <row r="167" spans="1:5">
+      <c r="F166">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6">
       <c r="A167">
         <v>164</v>
       </c>
@@ -3855,8 +4361,11 @@
       <c r="E167">
         <v>4</v>
       </c>
-    </row>
-    <row r="168" spans="1:5">
+      <c r="F167">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6">
       <c r="A168">
         <v>165</v>
       </c>
@@ -3872,8 +4381,11 @@
       <c r="E168">
         <v>4</v>
       </c>
-    </row>
-    <row r="169" spans="1:5">
+      <c r="F168">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6">
       <c r="A169">
         <v>166</v>
       </c>
@@ -3889,8 +4401,11 @@
       <c r="E169">
         <v>4</v>
       </c>
-    </row>
-    <row r="170" spans="1:5">
+      <c r="F169">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6">
       <c r="A170">
         <v>167</v>
       </c>
@@ -3906,8 +4421,11 @@
       <c r="E170">
         <v>4</v>
       </c>
-    </row>
-    <row r="171" spans="1:5">
+      <c r="F170">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6">
       <c r="A171">
         <v>168</v>
       </c>
@@ -3923,8 +4441,11 @@
       <c r="E171">
         <v>4</v>
       </c>
-    </row>
-    <row r="172" spans="1:5">
+      <c r="F171">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6">
       <c r="A172">
         <v>169</v>
       </c>
@@ -3940,8 +4461,11 @@
       <c r="E172">
         <v>4</v>
       </c>
-    </row>
-    <row r="173" spans="1:5">
+      <c r="F172">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6">
       <c r="A173">
         <v>170</v>
       </c>
@@ -3957,8 +4481,11 @@
       <c r="E173">
         <v>4</v>
       </c>
-    </row>
-    <row r="174" spans="1:5">
+      <c r="F173">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6">
       <c r="A174">
         <v>171</v>
       </c>
@@ -3974,8 +4501,11 @@
       <c r="E174">
         <v>4</v>
       </c>
-    </row>
-    <row r="175" spans="1:5">
+      <c r="F174">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6">
       <c r="A175">
         <v>172</v>
       </c>
@@ -3991,8 +4521,11 @@
       <c r="E175">
         <v>4</v>
       </c>
-    </row>
-    <row r="176" spans="1:5">
+      <c r="F175">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6">
       <c r="A176">
         <v>173</v>
       </c>
@@ -4008,8 +4541,11 @@
       <c r="E176">
         <v>4</v>
       </c>
-    </row>
-    <row r="177" spans="1:5">
+      <c r="F176">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6">
       <c r="A177">
         <v>174</v>
       </c>
@@ -4025,8 +4561,11 @@
       <c r="E177">
         <v>4</v>
       </c>
-    </row>
-    <row r="178" spans="1:5">
+      <c r="F177">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6">
       <c r="A178">
         <v>175</v>
       </c>
@@ -4042,8 +4581,11 @@
       <c r="E178">
         <v>4</v>
       </c>
-    </row>
-    <row r="179" spans="1:5">
+      <c r="F178">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6">
       <c r="A179">
         <v>176</v>
       </c>
@@ -4059,8 +4601,11 @@
       <c r="E179">
         <v>4</v>
       </c>
-    </row>
-    <row r="180" spans="1:5">
+      <c r="F179">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6">
       <c r="A180">
         <v>177</v>
       </c>
@@ -4076,8 +4621,11 @@
       <c r="E180">
         <v>4</v>
       </c>
-    </row>
-    <row r="181" spans="1:5">
+      <c r="F180">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6">
       <c r="A181">
         <v>178</v>
       </c>
@@ -4093,8 +4641,11 @@
       <c r="E181">
         <v>4</v>
       </c>
-    </row>
-    <row r="182" spans="1:5">
+      <c r="F181">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6">
       <c r="A182">
         <v>179</v>
       </c>
@@ -4110,8 +4661,11 @@
       <c r="E182">
         <v>4</v>
       </c>
-    </row>
-    <row r="183" spans="1:5">
+      <c r="F182">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6">
       <c r="A183">
         <v>180</v>
       </c>
@@ -4127,8 +4681,11 @@
       <c r="E183">
         <v>4</v>
       </c>
-    </row>
-    <row r="184" spans="1:5">
+      <c r="F183">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6">
       <c r="A184">
         <v>181</v>
       </c>
@@ -4144,8 +4701,11 @@
       <c r="E184">
         <v>4</v>
       </c>
-    </row>
-    <row r="185" spans="1:5">
+      <c r="F184">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6">
       <c r="A185">
         <v>182</v>
       </c>
@@ -4161,8 +4721,11 @@
       <c r="E185">
         <v>4</v>
       </c>
-    </row>
-    <row r="186" spans="1:5">
+      <c r="F185">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6">
       <c r="A186">
         <v>183</v>
       </c>
@@ -4178,8 +4741,11 @@
       <c r="E186">
         <v>4</v>
       </c>
-    </row>
-    <row r="187" spans="1:5">
+      <c r="F186">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6">
       <c r="A187">
         <v>184</v>
       </c>
@@ -4195,8 +4761,11 @@
       <c r="E187">
         <v>4</v>
       </c>
-    </row>
-    <row r="188" spans="1:5">
+      <c r="F187">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6">
       <c r="A188">
         <v>185</v>
       </c>
@@ -4212,8 +4781,11 @@
       <c r="E188">
         <v>4</v>
       </c>
-    </row>
-    <row r="189" spans="1:5">
+      <c r="F188">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6">
       <c r="A189">
         <v>186</v>
       </c>
@@ -4229,8 +4801,11 @@
       <c r="E189">
         <v>4</v>
       </c>
-    </row>
-    <row r="190" spans="1:5">
+      <c r="F189">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6">
       <c r="A190">
         <v>187</v>
       </c>
@@ -4246,8 +4821,11 @@
       <c r="E190">
         <v>4</v>
       </c>
-    </row>
-    <row r="191" spans="1:5">
+      <c r="F190">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6">
       <c r="A191">
         <v>188</v>
       </c>
@@ -4263,8 +4841,11 @@
       <c r="E191">
         <v>4</v>
       </c>
-    </row>
-    <row r="192" spans="1:5">
+      <c r="F191">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6">
       <c r="A192">
         <v>189</v>
       </c>
@@ -4280,8 +4861,11 @@
       <c r="E192">
         <v>4</v>
       </c>
-    </row>
-    <row r="193" spans="1:5">
+      <c r="F192">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6">
       <c r="A193">
         <v>190</v>
       </c>
@@ -4297,8 +4881,11 @@
       <c r="E193">
         <v>4</v>
       </c>
-    </row>
-    <row r="194" spans="1:5">
+      <c r="F193">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6">
       <c r="A194">
         <v>191</v>
       </c>
@@ -4314,8 +4901,11 @@
       <c r="E194">
         <v>4</v>
       </c>
-    </row>
-    <row r="195" spans="1:5">
+      <c r="F194">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6">
       <c r="A195">
         <v>192</v>
       </c>
@@ -4331,8 +4921,11 @@
       <c r="E195">
         <v>4</v>
       </c>
-    </row>
-    <row r="196" spans="1:5">
+      <c r="F195">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6">
       <c r="A196">
         <v>193</v>
       </c>
@@ -4348,8 +4941,11 @@
       <c r="E196">
         <v>4</v>
       </c>
-    </row>
-    <row r="197" spans="1:5">
+      <c r="F196">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6">
       <c r="A197">
         <v>194</v>
       </c>
@@ -4365,8 +4961,11 @@
       <c r="E197">
         <v>4</v>
       </c>
-    </row>
-    <row r="198" spans="1:5">
+      <c r="F197">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6">
       <c r="A198">
         <v>195</v>
       </c>
@@ -4382,8 +4981,11 @@
       <c r="E198">
         <v>4</v>
       </c>
-    </row>
-    <row r="199" spans="1:5">
+      <c r="F198">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6">
       <c r="A199">
         <v>196</v>
       </c>
@@ -4399,8 +5001,11 @@
       <c r="E199">
         <v>4</v>
       </c>
-    </row>
-    <row r="200" spans="1:5">
+      <c r="F199">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6">
       <c r="A200">
         <v>197</v>
       </c>
@@ -4416,8 +5021,11 @@
       <c r="E200">
         <v>4</v>
       </c>
-    </row>
-    <row r="201" spans="1:5">
+      <c r="F200">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6">
       <c r="A201">
         <v>198</v>
       </c>
@@ -4433,8 +5041,11 @@
       <c r="E201">
         <v>4</v>
       </c>
-    </row>
-    <row r="202" spans="1:5">
+      <c r="F201">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6">
       <c r="A202">
         <v>199</v>
       </c>
@@ -4450,8 +5061,11 @@
       <c r="E202">
         <v>4</v>
       </c>
-    </row>
-    <row r="203" spans="1:5">
+      <c r="F202">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6">
       <c r="A203">
         <v>200</v>
       </c>
@@ -4467,8 +5081,11 @@
       <c r="E203">
         <v>4</v>
       </c>
-    </row>
-    <row r="204" spans="1:5">
+      <c r="F203">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6">
       <c r="A204">
         <v>201</v>
       </c>
@@ -4484,8 +5101,11 @@
       <c r="E204">
         <v>4</v>
       </c>
-    </row>
-    <row r="205" spans="1:5">
+      <c r="F204">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6">
       <c r="A205">
         <v>202</v>
       </c>
@@ -4501,8 +5121,11 @@
       <c r="E205">
         <v>4</v>
       </c>
-    </row>
-    <row r="206" spans="1:5">
+      <c r="F205">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6">
       <c r="A206">
         <v>203</v>
       </c>
@@ -4518,8 +5141,11 @@
       <c r="E206">
         <v>4</v>
       </c>
-    </row>
-    <row r="207" spans="1:5">
+      <c r="F206">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6">
       <c r="A207">
         <v>204</v>
       </c>
@@ -4535,8 +5161,11 @@
       <c r="E207">
         <v>4</v>
       </c>
-    </row>
-    <row r="208" spans="1:5">
+      <c r="F207">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6">
       <c r="A208">
         <v>205</v>
       </c>
@@ -4552,8 +5181,11 @@
       <c r="E208">
         <v>4</v>
       </c>
-    </row>
-    <row r="209" spans="1:5">
+      <c r="F208">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6">
       <c r="A209">
         <v>206</v>
       </c>
@@ -4569,8 +5201,11 @@
       <c r="E209">
         <v>4</v>
       </c>
-    </row>
-    <row r="210" spans="1:5">
+      <c r="F209">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6">
       <c r="A210">
         <v>207</v>
       </c>
@@ -4586,8 +5221,11 @@
       <c r="E210">
         <v>4</v>
       </c>
-    </row>
-    <row r="211" spans="1:5">
+      <c r="F210">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6">
       <c r="A211">
         <v>208</v>
       </c>
@@ -4603,8 +5241,11 @@
       <c r="E211">
         <v>4</v>
       </c>
-    </row>
-    <row r="212" spans="1:5">
+      <c r="F211">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6">
       <c r="A212">
         <v>209</v>
       </c>
@@ -4620,8 +5261,11 @@
       <c r="E212">
         <v>4</v>
       </c>
-    </row>
-    <row r="213" spans="1:5">
+      <c r="F212">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6">
       <c r="A213">
         <v>210</v>
       </c>
@@ -4637,8 +5281,11 @@
       <c r="E213">
         <v>4</v>
       </c>
-    </row>
-    <row r="214" spans="1:5">
+      <c r="F213">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6">
       <c r="A214">
         <v>211</v>
       </c>
@@ -4654,8 +5301,11 @@
       <c r="E214">
         <v>4</v>
       </c>
-    </row>
-    <row r="215" spans="1:5">
+      <c r="F214">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6">
       <c r="A215">
         <v>212</v>
       </c>
@@ -4671,8 +5321,11 @@
       <c r="E215">
         <v>4</v>
       </c>
-    </row>
-    <row r="216" spans="1:5">
+      <c r="F215">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6">
       <c r="A216">
         <v>213</v>
       </c>
@@ -4688,8 +5341,11 @@
       <c r="E216">
         <v>4</v>
       </c>
-    </row>
-    <row r="217" spans="1:5">
+      <c r="F216">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6">
       <c r="A217">
         <v>214</v>
       </c>
@@ -4705,8 +5361,11 @@
       <c r="E217">
         <v>4</v>
       </c>
-    </row>
-    <row r="218" spans="1:5">
+      <c r="F217">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6">
       <c r="A218">
         <v>215</v>
       </c>
@@ -4722,8 +5381,11 @@
       <c r="E218">
         <v>4</v>
       </c>
-    </row>
-    <row r="219" spans="1:5">
+      <c r="F218">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6">
       <c r="A219">
         <v>216</v>
       </c>
@@ -4739,8 +5401,11 @@
       <c r="E219">
         <v>4</v>
       </c>
-    </row>
-    <row r="220" spans="1:5">
+      <c r="F219">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6">
       <c r="A220">
         <v>217</v>
       </c>
@@ -4756,8 +5421,11 @@
       <c r="E220">
         <v>4</v>
       </c>
-    </row>
-    <row r="221" spans="1:5">
+      <c r="F220">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6">
       <c r="A221">
         <v>218</v>
       </c>
@@ -4773,8 +5441,11 @@
       <c r="E221">
         <v>4</v>
       </c>
-    </row>
-    <row r="222" spans="1:5">
+      <c r="F221">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6">
       <c r="A222">
         <v>219</v>
       </c>
@@ -4790,8 +5461,11 @@
       <c r="E222">
         <v>4</v>
       </c>
-    </row>
-    <row r="223" spans="1:5">
+      <c r="F222">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6">
       <c r="A223">
         <v>220</v>
       </c>
@@ -4807,8 +5481,11 @@
       <c r="E223">
         <v>4</v>
       </c>
-    </row>
-    <row r="224" spans="1:5">
+      <c r="F223">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6">
       <c r="A224">
         <v>221</v>
       </c>
@@ -4824,8 +5501,11 @@
       <c r="E224">
         <v>4</v>
       </c>
-    </row>
-    <row r="225" spans="1:5">
+      <c r="F224">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6">
       <c r="A225">
         <v>222</v>
       </c>
@@ -4841,8 +5521,11 @@
       <c r="E225">
         <v>4</v>
       </c>
-    </row>
-    <row r="226" spans="1:5">
+      <c r="F225">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6">
       <c r="A226">
         <v>223</v>
       </c>
@@ -4858,8 +5541,11 @@
       <c r="E226">
         <v>4</v>
       </c>
-    </row>
-    <row r="227" spans="1:5">
+      <c r="F226">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6">
       <c r="A227">
         <v>224</v>
       </c>
@@ -4874,6 +5560,9 @@
       </c>
       <c r="E227">
         <v>4</v>
+      </c>
+      <c r="F227">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
